--- a/CAM_XILINX_STM/com_1300/com_1300_information/MCU.xlsx
+++ b/CAM_XILINX_STM/com_1300/com_1300_information/MCU.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digitalfantazy/Desktop/com_1300/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\CASS\CAM_XILINX_STM\com_1300\com_1300_information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4775C2-DB1C-A042-877E-47104D2DDA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928586C2-6A23-49AD-A12B-A9934EDB8745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -402,20 +402,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -704,17 +700,17 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B47" sqref="B47:B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,7 +730,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -743,7 +739,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -752,7 +748,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -761,7 +757,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -770,7 +766,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -779,7 +775,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -788,7 +784,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -799,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -810,7 +806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -821,7 +817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -832,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -841,7 +837,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -852,7 +848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -863,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -874,7 +870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -885,7 +881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -896,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -905,7 +901,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -914,7 +910,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -923,7 +919,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -932,7 +928,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -941,7 +937,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -950,7 +946,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -959,7 +955,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -968,7 +964,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -977,7 +973,7 @@
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -988,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -999,7 +995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1008,7 +1004,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1013,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1026,7 +1022,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1035,7 +1031,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1046,7 +1042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1057,7 +1053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1066,7 +1062,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1075,7 +1071,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1084,7 +1080,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1093,7 +1089,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1102,7 +1098,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1111,7 +1107,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
@@ -1120,7 +1116,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>35</v>
       </c>
@@ -1129,7 +1125,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
@@ -1138,7 +1134,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
@@ -1147,28 +1143,28 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>75</v>
@@ -1177,7 +1173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>74</v>
@@ -1186,180 +1182,180 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
+    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
